--- a/model/compared_results/ecoli2_result/ecoli2_results.xlsx
+++ b/model/compared_results/ecoli2_result/ecoli2_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.875</v>
+        <v>0.8839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7671</v>
+        <v>0.8134</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9257</v>
+        <v>0.917</v>
       </c>
       <c r="E2" t="n">
-        <v>0.853</v>
+        <v>0.8653999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8421</v>
+        <v>0.8628</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9396</v>
+        <v>0.9413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8891</v>
+        <v>0.895</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8626</v>
+        <v>0.8668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8464</v>
+        <v>0.8652</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8719</v>
+        <v>0.866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8411</v>
+        <v>0.8502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8863</v>
+        <v>0.873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8555</v>
+        <v>0.8502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.863</v>
+        <v>0.8609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9436</v>
+        <v>0.9417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8917</v>
+        <v>0.8933</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8496</v>
+        <v>0.8436</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8637</v>
+        <v>0.8616</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8749</v>
+        <v>0.869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8879</v>
+        <v>0.8788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8687</v>
+        <v>0.8643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8619</v>
+        <v>0.8557</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8781</v>
+        <v>0.8712</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9315</v>
+        <v>0.9393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8726</v>
+        <v>0.8874</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8521</v>
+        <v>0.8475</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8783</v>
+        <v>0.8715000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8808</v>
+        <v>0.8778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9165</v>
+        <v>0.9074</v>
       </c>
       <c r="D5" t="n">
         <v>0.8643</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8699</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8898</v>
+        <v>0.8853</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9332</v>
+        <v>0.9339</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8752</v>
+        <v>0.87</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8597</v>
+        <v>0.8561</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8904</v>
+        <v>0.8858</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7467</v>
+        <v>0.7975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7368</v>
+        <v>0.7017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7503</v>
+        <v>0.8427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7258</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7395</v>
+        <v>0.7598</v>
       </c>
       <c r="G6" t="n">
-        <v>0.829</v>
+        <v>0.8626</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7091</v>
+        <v>0.7463</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.7641</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7436</v>
+        <v>0.7722</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8659</v>
+        <v>0.8689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8974</v>
+        <v>0.916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8512</v>
+        <v>0.8469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8538</v>
+        <v>0.8576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8738</v>
+        <v>0.8804999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9401</v>
+        <v>0.9358</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8915</v>
+        <v>0.8848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8442</v>
+        <v>0.8474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8743</v>
+        <v>0.8814</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,210 @@
       </c>
       <c r="J10" t="n">
         <v>0.8102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7944</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9039</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8468</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9285</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8663999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8504</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8491</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8391999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8514</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8209</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8316</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8388</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8602</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7671</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9039</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8373</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8318</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9303</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8971</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8408</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8355</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8451</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8026</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8643999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8254</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9046</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8297</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8202</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8661</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8451</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8421999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9272</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8666</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8466</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8448</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KmeansSMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7753</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8191000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8212</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9015</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8252</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8159</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8243</v>
       </c>
     </row>
   </sheetData>
